--- a/MasterData/9. AmortTemplateTelemundo.xlsx
+++ b/MasterData/9. AmortTemplateTelemundo.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1142" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="61">
   <si>
     <t>AmortTemplateName</t>
   </si>
@@ -207,6 +207,12 @@
   </si>
   <si>
     <t>TitleType Episode not found in drop down</t>
+  </si>
+  <si>
+    <t>Episodes need to be added but no episodes tab</t>
+  </si>
+  <si>
+    <t>Finance type doesn’t exist in dropdown</t>
   </si>
 </sst>
 </file>
@@ -2799,9 +2805,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2868,7 +2877,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42</v>
       </c>
@@ -2913,7 +2922,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42</v>
       </c>
@@ -2959,7 +2968,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42</v>
       </c>
@@ -3005,7 +3014,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42</v>
       </c>
@@ -3051,7 +3060,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42</v>
       </c>
@@ -3092,9 +3101,11 @@
         <f t="shared" si="0"/>
         <v>421 RUNSportsAcquired Films</v>
       </c>
-      <c r="N6" s="1" t="e">
-        <f>VLOOKUP(M6,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N6" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O6" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -3138,9 +3149,11 @@
         <f t="shared" si="0"/>
         <v>421 RUNVarietyAcquired Films</v>
       </c>
-      <c r="N7" s="1" t="e">
-        <f>VLOOKUP(M7,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O7" s="1" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -3189,7 +3202,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43</v>
       </c>
@@ -3281,7 +3294,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44</v>
       </c>
@@ -3327,7 +3340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44</v>
       </c>
@@ -3419,7 +3432,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>55</v>
       </c>
@@ -3467,7 +3480,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>55</v>
       </c>
@@ -3515,7 +3528,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>55</v>
       </c>
@@ -3563,7 +3576,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>55</v>
       </c>
@@ -3657,7 +3670,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>190</v>
       </c>
@@ -3703,7 +3716,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>191</v>
       </c>
@@ -3751,7 +3764,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>191</v>
       </c>
@@ -3797,7 +3810,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>191</v>
       </c>
@@ -3843,7 +3856,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>191</v>
       </c>
@@ -3884,12 +3897,14 @@
         <f t="shared" si="0"/>
         <v>1911 RUN-SeriesSportsAcquired Series</v>
       </c>
-      <c r="N23" s="1" t="e">
-        <f>VLOOKUP(M23,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O23" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>192</v>
       </c>
@@ -3935,7 +3950,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>193</v>
       </c>
@@ -3983,7 +3998,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>193</v>
       </c>
@@ -4029,7 +4044,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>193</v>
       </c>
@@ -4213,7 +4228,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>197</v>
       </c>
@@ -4259,7 +4274,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>198</v>
       </c>
@@ -4307,7 +4322,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>198</v>
       </c>
@@ -4353,7 +4368,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>198</v>
       </c>
@@ -4445,7 +4460,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>199</v>
       </c>
@@ -4491,7 +4506,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>200</v>
       </c>
@@ -4539,7 +4554,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>200</v>
       </c>
@@ -4585,7 +4600,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>200</v>
       </c>
@@ -4769,7 +4784,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>204</v>
       </c>
@@ -4815,7 +4830,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>205</v>
       </c>
@@ -4863,7 +4878,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>205</v>
       </c>
@@ -4909,7 +4924,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>205</v>
       </c>
@@ -5001,7 +5016,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>206</v>
       </c>
@@ -5047,7 +5062,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>207</v>
       </c>
@@ -5095,7 +5110,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>207</v>
       </c>
@@ -5141,7 +5156,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>207</v>
       </c>
@@ -5279,7 +5294,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>210</v>
       </c>
@@ -5327,7 +5342,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>210</v>
       </c>
@@ -5375,7 +5390,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>211</v>
       </c>
@@ -5423,7 +5438,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>212</v>
       </c>
@@ -5471,7 +5486,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>213</v>
       </c>
@@ -5519,7 +5534,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>213</v>
       </c>
@@ -5567,7 +5582,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>213</v>
       </c>
@@ -5615,7 +5630,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>213</v>
       </c>
@@ -5663,7 +5678,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>214</v>
       </c>
@@ -5711,7 +5726,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>215</v>
       </c>
@@ -5759,7 +5774,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>215</v>
       </c>
@@ -5807,7 +5822,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>215</v>
       </c>
@@ -5855,7 +5870,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>215</v>
       </c>
@@ -5903,7 +5918,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>216</v>
       </c>
@@ -5997,7 +6012,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>218</v>
       </c>
@@ -6089,7 +6104,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>220</v>
       </c>
@@ -6135,7 +6150,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>221</v>
       </c>
@@ -6183,7 +6198,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>221</v>
       </c>
@@ -6229,7 +6244,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>221</v>
       </c>
@@ -6321,7 +6336,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>222</v>
       </c>
@@ -6367,7 +6382,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>223</v>
       </c>
@@ -6415,7 +6430,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>223</v>
       </c>
@@ -6461,7 +6476,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>223</v>
       </c>
@@ -6599,7 +6614,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>346</v>
       </c>
@@ -6645,7 +6660,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>347</v>
       </c>
@@ -6691,7 +6706,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>348</v>
       </c>
@@ -6737,7 +6752,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>349</v>
       </c>
@@ -6785,7 +6800,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>350</v>
       </c>
@@ -6833,7 +6848,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>351</v>
       </c>
@@ -6874,12 +6889,11 @@
         <f t="shared" si="1"/>
         <v>3511 RUN-SpecialSpecialOriginal Specials</v>
       </c>
-      <c r="N87" s="1" t="e">
-        <f>VLOOKUP(M87,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N87" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>352</v>
       </c>
@@ -6925,7 +6939,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>353</v>
       </c>
@@ -6971,7 +6985,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>354</v>
       </c>
@@ -7019,7 +7033,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>369</v>
       </c>
@@ -7066,6 +7080,21 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:O91">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Film"/>
+        <filter val="News"/>
+        <filter val="Sports"/>
+        <filter val="Variety"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="#N/A"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
@@ -7076,10 +7105,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:E2"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7128,6 +7157,363 @@
         <v>421 RUNFilmAcquired Films</v>
       </c>
     </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>351</v>
+      </c>
+      <c r="B3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="1" t="str">
+        <f t="shared" ref="F3:F59" si="0">CONCATENATE(A3,B3,C3,D3)</f>
+        <v>3511 RUN-SpecialSpecialOriginal Specials</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F4" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F5" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F32" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F36" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F37" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F38" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F39" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F40" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F41" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F42" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F43" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F44" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F45" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F46" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F47" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F48" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F49" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F50" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="51" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F51" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="52" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F52" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="53" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F53" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="54" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F54" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="55" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F55" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="56" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F56" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="57" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F57" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="58" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F58" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="59" spans="6:6" x14ac:dyDescent="0.25">
+      <c r="F59" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/MasterData/9. AmortTemplateTelemundo.xlsx
+++ b/MasterData/9. AmortTemplateTelemundo.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1153" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="61">
   <si>
     <t>AmortTemplateName</t>
   </si>
@@ -2808,8 +2808,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2922,7 +2922,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42</v>
       </c>
@@ -2968,7 +2968,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42</v>
       </c>
@@ -3014,7 +3014,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42</v>
       </c>
@@ -3108,7 +3108,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42</v>
       </c>
@@ -3202,7 +3202,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43</v>
       </c>
@@ -3294,7 +3294,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44</v>
       </c>
@@ -3340,7 +3340,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44</v>
       </c>
@@ -3670,7 +3670,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="19" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>190</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>191</v>
       </c>
@@ -3810,7 +3810,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>191</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>192</v>
       </c>
@@ -4039,9 +4039,8 @@
         <f t="shared" si="0"/>
         <v>1931 RUNSeriesSports</v>
       </c>
-      <c r="N26" s="1" t="e">
-        <f>VLOOKUP(M26,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N26" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -4085,12 +4084,11 @@
         <f t="shared" si="0"/>
         <v>1931 RUNSpecialSports</v>
       </c>
-      <c r="N27" s="1" t="e">
-        <f>VLOOKUP(M27,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N27" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>193</v>
       </c>
@@ -4131,9 +4129,8 @@
         <f t="shared" si="0"/>
         <v>1931 RUNSportsSports</v>
       </c>
-      <c r="N28" s="1" t="e">
-        <f>VLOOKUP(M28,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N28" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -4228,7 +4225,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="31" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>197</v>
       </c>
@@ -4322,7 +4319,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>198</v>
       </c>
@@ -4368,7 +4365,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>198</v>
       </c>
@@ -4460,7 +4457,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>199</v>
       </c>
@@ -4595,9 +4592,8 @@
         <f t="shared" si="0"/>
         <v>2002 RUNSeriesSports</v>
       </c>
-      <c r="N38" s="1" t="e">
-        <f>VLOOKUP(M38,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N38" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -4641,12 +4637,11 @@
         <f t="shared" si="0"/>
         <v>2002 RUNSpecialSports</v>
       </c>
-      <c r="N39" s="1" t="e">
-        <f>VLOOKUP(M39,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N39" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>200</v>
       </c>
@@ -4687,9 +4682,8 @@
         <f t="shared" si="0"/>
         <v>2002 RUNSportsSports</v>
       </c>
-      <c r="N40" s="1" t="e">
-        <f>VLOOKUP(M40,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N40" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -4784,7 +4778,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="43" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>204</v>
       </c>
@@ -4878,7 +4872,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>205</v>
       </c>
@@ -4924,7 +4918,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>205</v>
       </c>
@@ -5016,7 +5010,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>206</v>
       </c>
@@ -5151,9 +5145,8 @@
         <f t="shared" si="0"/>
         <v>2073 RUNSeriesSports</v>
       </c>
-      <c r="N50" s="1" t="e">
-        <f>VLOOKUP(M50,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N50" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -5197,12 +5190,11 @@
         <f t="shared" si="0"/>
         <v>2073 RUNSpecialSports</v>
       </c>
-      <c r="N51" s="1" t="e">
-        <f>VLOOKUP(M51,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N51" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>207</v>
       </c>
@@ -5243,9 +5235,8 @@
         <f t="shared" si="0"/>
         <v>2073 RUNSportsSports</v>
       </c>
-      <c r="N52" s="1" t="e">
-        <f>VLOOKUP(M52,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N52" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -6012,7 +6003,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>218</v>
       </c>
@@ -6104,7 +6095,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>220</v>
       </c>
@@ -6198,7 +6189,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>221</v>
       </c>
@@ -6244,7 +6235,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>221</v>
       </c>
@@ -6336,7 +6327,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>222</v>
       </c>
@@ -6471,9 +6462,8 @@
         <f t="shared" si="1"/>
         <v>223NovelaSeriesSports</v>
       </c>
-      <c r="N78" s="1" t="e">
-        <f>VLOOKUP(M78,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N78" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -6517,12 +6507,11 @@
         <f t="shared" si="1"/>
         <v>223NovelaSpecialSports</v>
       </c>
-      <c r="N79" s="1" t="e">
-        <f>VLOOKUP(M79,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N79" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>223</v>
       </c>
@@ -6563,9 +6552,8 @@
         <f t="shared" si="1"/>
         <v>223NovelaSportsSports</v>
       </c>
-      <c r="N80" s="1" t="e">
-        <f>VLOOKUP(M80,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N80" s="1" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
@@ -6614,7 +6602,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>346</v>
       </c>
@@ -6660,7 +6648,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>347</v>
       </c>
@@ -6706,7 +6694,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>348</v>
       </c>
@@ -6893,7 +6881,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>352</v>
       </c>
@@ -6939,7 +6927,7 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>353</v>
       </c>
@@ -7033,7 +7021,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>369</v>
       </c>
@@ -7081,14 +7069,6 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:O91">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Film"/>
-        <filter val="News"/>
-        <filter val="Sports"/>
-        <filter val="Variety"/>
-      </filters>
-    </filterColumn>
     <filterColumn colId="13">
       <filters>
         <filter val="#N/A"/>

--- a/MasterData/9. AmortTemplateTelemundo.xlsx
+++ b/MasterData/9. AmortTemplateTelemundo.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="61">
   <si>
     <t>AmortTemplateName</t>
   </si>
@@ -2809,7 +2809,7 @@
   <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:L1"/>
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3156,7 +3156,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43</v>
       </c>
@@ -3197,9 +3197,8 @@
         <f t="shared" si="0"/>
         <v>432 RUNFilmAcquired Films</v>
       </c>
-      <c r="N8" s="1" t="e">
-        <f>VLOOKUP(M8,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N8" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -7088,7 +7087,7 @@
   <dimension ref="A1:F59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="A4" sqref="A4:E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7159,9 +7158,24 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>55</v>
+      </c>
       <c r="F4" s="1" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>432 RUNFilmAcquired Films</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">

--- a/MasterData/9. AmortTemplateTelemundo.xlsx
+++ b/MasterData/9. AmortTemplateTelemundo.xlsx
@@ -18,7 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">AmortTemplateGrid!$A$1:$O$91</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AmortTemplateSectionGrid!$A$1:$F$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">AmortTemplateSectionGrid!$A$1:$F$112</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1170" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="62">
   <si>
     <t>AmortTemplateName</t>
   </si>
@@ -213,6 +213,9 @@
   </si>
   <si>
     <t>Finance type doesn’t exist in dropdown</t>
+  </si>
+  <si>
+    <t>Title not scheduled</t>
   </si>
 </sst>
 </file>
@@ -541,7 +544,7 @@
   <dimension ref="A1:F112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2808,8 +2811,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="N92" sqref="N92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2922,7 +2925,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42</v>
       </c>
@@ -2963,12 +2966,14 @@
         <f t="shared" ref="M3:M66" si="0">CONCATENATE(A3,B3,C3,D3)</f>
         <v>421 RUNNovelaAcquired Films</v>
       </c>
-      <c r="N3" s="1" t="e">
-        <f>VLOOKUP(M3,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42</v>
       </c>
@@ -3009,12 +3014,11 @@
         <f t="shared" si="0"/>
         <v>421 RUNSeriesAcquired Films</v>
       </c>
-      <c r="N4" s="1" t="e">
-        <f>VLOOKUP(M4,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N4" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42</v>
       </c>
@@ -3055,9 +3059,8 @@
         <f t="shared" si="0"/>
         <v>421 RUNSpecialAcquired Films</v>
       </c>
-      <c r="N5" s="1" t="e">
-        <f>VLOOKUP(M5,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N5" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -3201,7 +3204,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43</v>
       </c>
@@ -3242,12 +3245,11 @@
         <f t="shared" si="0"/>
         <v>432 RUNSpecialAcquired Films</v>
       </c>
-      <c r="N9" s="1" t="e">
-        <f>VLOOKUP(M9,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N9" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44</v>
       </c>
@@ -3288,12 +3290,11 @@
         <f t="shared" si="0"/>
         <v>443 RUNFilmAcquired Films</v>
       </c>
-      <c r="N10" s="1" t="e">
-        <f>VLOOKUP(M10,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N10" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44</v>
       </c>
@@ -3334,12 +3335,11 @@
         <f t="shared" si="0"/>
         <v>443 RUNSeriesAcquired Films</v>
       </c>
-      <c r="N11" s="1" t="e">
-        <f>VLOOKUP(M11,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N11" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44</v>
       </c>
@@ -3380,12 +3380,11 @@
         <f t="shared" si="0"/>
         <v>443 RUNSpecialAcquired Films</v>
       </c>
-      <c r="N12" s="1" t="e">
-        <f>VLOOKUP(M12,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N12" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44</v>
       </c>
@@ -3426,9 +3425,8 @@
         <f t="shared" si="0"/>
         <v>443 RUNVarietyAcquired Films</v>
       </c>
-      <c r="N13" s="1" t="e">
-        <f>VLOOKUP(M13,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N13" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -3664,9 +3662,11 @@
         <f t="shared" si="0"/>
         <v>1891 RUNNewsNews</v>
       </c>
-      <c r="N18" s="1" t="e">
-        <f>VLOOKUP(M18,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O18" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -3710,9 +3710,11 @@
         <f t="shared" si="0"/>
         <v>1901 RUNNovelaOriginal Novelas</v>
       </c>
-      <c r="N19" s="1" t="e">
-        <f>VLOOKUP(M19,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N19" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -3763,7 +3765,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>191</v>
       </c>
@@ -3804,12 +3806,11 @@
         <f t="shared" si="0"/>
         <v>1911 RUN-SeriesSeriesAcquired Series</v>
       </c>
-      <c r="N21" s="1" t="e">
-        <f>VLOOKUP(M21,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N21" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>191</v>
       </c>
@@ -3850,9 +3851,11 @@
         <f t="shared" si="0"/>
         <v>1911 RUN-SeriesSpecialAcquired Series</v>
       </c>
-      <c r="N22" s="1" t="e">
-        <f>VLOOKUP(M22,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N22" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O22" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -3903,7 +3906,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>192</v>
       </c>
@@ -3944,9 +3947,11 @@
         <f t="shared" si="0"/>
         <v>1921 RUN-SpecialSpecialStyle Specials</v>
       </c>
-      <c r="N24" s="1" t="e">
-        <f>VLOOKUP(M24,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O24" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -3997,7 +4002,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="26" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>193</v>
       </c>
@@ -4039,10 +4044,13 @@
         <v>1931 RUNSeriesSports</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="O26" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>193</v>
       </c>
@@ -4084,10 +4092,13 @@
         <v>1931 RUNSpecialSports</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="O27" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>193</v>
       </c>
@@ -4129,7 +4140,10 @@
         <v>1931 RUNSportsSports</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="O28" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -4173,9 +4187,11 @@
         <f t="shared" si="0"/>
         <v>1941 RUNVarietyOriginal Variety</v>
       </c>
-      <c r="N29" s="1" t="e">
-        <f>VLOOKUP(M29,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O29" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -4219,9 +4235,11 @@
         <f t="shared" si="0"/>
         <v>1962 RUNNewsNews</v>
       </c>
-      <c r="N30" s="1" t="e">
-        <f>VLOOKUP(M30,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O30" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -4265,9 +4283,11 @@
         <f t="shared" si="0"/>
         <v>1972 RUNNovelaOriginal Novelas</v>
       </c>
-      <c r="N31" s="1" t="e">
-        <f>VLOOKUP(M31,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N31" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O31" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -4318,7 +4338,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>198</v>
       </c>
@@ -4359,12 +4379,11 @@
         <f t="shared" si="0"/>
         <v>1982 RUN-SeriesSeriesAcquired Series</v>
       </c>
-      <c r="N33" s="1" t="e">
-        <f>VLOOKUP(M33,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N33" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>198</v>
       </c>
@@ -4405,12 +4424,14 @@
         <f t="shared" si="0"/>
         <v>1982 RUN-SeriesSpecialAcquired Series</v>
       </c>
-      <c r="N34" s="1" t="e">
-        <f>VLOOKUP(M34,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N34" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O34" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>198</v>
       </c>
@@ -4451,12 +4472,14 @@
         <f t="shared" si="0"/>
         <v>1982 RUN-SeriesSportsAcquired Series</v>
       </c>
-      <c r="N35" s="1" t="e">
-        <f>VLOOKUP(M35,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>199</v>
       </c>
@@ -4497,9 +4520,8 @@
         <f t="shared" si="0"/>
         <v>1992 RUN-SpecialSpecialStyle Specials</v>
       </c>
-      <c r="N36" s="1" t="e">
-        <f>VLOOKUP(M36,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N36" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -4550,7 +4572,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>200</v>
       </c>
@@ -4592,10 +4614,13 @@
         <v>2002 RUNSeriesSports</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="O38" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>200</v>
       </c>
@@ -4637,10 +4662,13 @@
         <v>2002 RUNSpecialSports</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="O39" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>200</v>
       </c>
@@ -4682,7 +4710,10 @@
         <v>2002 RUNSportsSports</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
+      </c>
+      <c r="O40" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -4726,9 +4757,11 @@
         <f t="shared" si="0"/>
         <v>2012 RUNVarietyOriginal Variety</v>
       </c>
-      <c r="N41" s="1" t="e">
-        <f>VLOOKUP(M41,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O41" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -4772,9 +4805,11 @@
         <f t="shared" si="0"/>
         <v>2033 RUNNewsNews</v>
       </c>
-      <c r="N42" s="1" t="e">
-        <f>VLOOKUP(M42,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O42" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -4818,9 +4853,11 @@
         <f t="shared" si="0"/>
         <v>2043 RUNNovelaOriginal Novelas</v>
       </c>
-      <c r="N43" s="1" t="e">
-        <f>VLOOKUP(M43,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N43" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O43" s="1" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -4871,7 +4908,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>205</v>
       </c>
@@ -4912,12 +4949,11 @@
         <f t="shared" si="0"/>
         <v>2053 RUN-SeriesSeriesAcquired Series</v>
       </c>
-      <c r="N45" s="1" t="e">
-        <f>VLOOKUP(M45,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N45" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>205</v>
       </c>
@@ -4958,12 +4994,14 @@
         <f t="shared" si="0"/>
         <v>2053 RUN-SeriesSpecialAcquired Series</v>
       </c>
-      <c r="N46" s="1" t="e">
-        <f>VLOOKUP(M46,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N46" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O46" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>205</v>
       </c>
@@ -5004,12 +5042,14 @@
         <f t="shared" si="0"/>
         <v>2053 RUN-SeriesSportsAcquired Series</v>
       </c>
-      <c r="N47" s="1" t="e">
-        <f>VLOOKUP(M47,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O47" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>206</v>
       </c>
@@ -5050,9 +5090,8 @@
         <f t="shared" si="0"/>
         <v>2063 RUN-SpecialSpecialStyle Specials</v>
       </c>
-      <c r="N48" s="1" t="e">
-        <f>VLOOKUP(M48,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N48" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -5103,7 +5142,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>207</v>
       </c>
@@ -5145,10 +5184,13 @@
         <v>2073 RUNSeriesSports</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="O50" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>207</v>
       </c>
@@ -5190,10 +5232,13 @@
         <v>2073 RUNSpecialSports</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="O51" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>207</v>
       </c>
@@ -5235,10 +5280,13 @@
         <v>2073 RUNSportsSports</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="O52" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>208</v>
       </c>
@@ -5279,9 +5327,8 @@
         <f t="shared" si="0"/>
         <v>2083 RUNVarietyOriginal Variety</v>
       </c>
-      <c r="N53" s="1" t="e">
-        <f>VLOOKUP(M53,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N53" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -5956,7 +6003,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>218</v>
       </c>
@@ -5997,12 +6044,14 @@
         <f t="shared" si="1"/>
         <v>218NovelaFilmAcquired Films</v>
       </c>
-      <c r="N68" s="1" t="e">
-        <f>VLOOKUP(M68,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N68" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O68" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>218</v>
       </c>
@@ -6043,12 +6092,14 @@
         <f t="shared" si="1"/>
         <v>218NovelaSpecialAcquired Films</v>
       </c>
-      <c r="N69" s="1" t="e">
-        <f>VLOOKUP(M69,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N69" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O69" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>219</v>
       </c>
@@ -6089,12 +6140,11 @@
         <f t="shared" si="1"/>
         <v>219NovelaNewsNews</v>
       </c>
-      <c r="N70" s="1" t="e">
-        <f>VLOOKUP(M70,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N70" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>220</v>
       </c>
@@ -6135,9 +6185,8 @@
         <f t="shared" si="1"/>
         <v>220NovelaNovelaOriginal Novelas</v>
       </c>
-      <c r="N71" s="1" t="e">
-        <f>VLOOKUP(M71,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N71" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -6188,7 +6237,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>221</v>
       </c>
@@ -6229,12 +6278,11 @@
         <f t="shared" si="1"/>
         <v>221Novela-SeriesSeriesAcquired Series</v>
       </c>
-      <c r="N73" s="1" t="e">
-        <f>VLOOKUP(M73,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N73" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>221</v>
       </c>
@@ -6275,12 +6323,14 @@
         <f t="shared" si="1"/>
         <v>221Novela-SeriesSpecialAcquired Series</v>
       </c>
-      <c r="N74" s="1" t="e">
-        <f>VLOOKUP(M74,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N74" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O74" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>221</v>
       </c>
@@ -6321,12 +6371,14 @@
         <f t="shared" si="1"/>
         <v>221Novela-SeriesSportsAcquired Series</v>
       </c>
-      <c r="N75" s="1" t="e">
-        <f>VLOOKUP(M75,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N75" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O75" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>222</v>
       </c>
@@ -6367,9 +6419,11 @@
         <f t="shared" si="1"/>
         <v>222Novela-SpecialSpecialStyle Specials</v>
       </c>
-      <c r="N76" s="1" t="e">
-        <f>VLOOKUP(M76,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N76" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="O76" s="1" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -6420,7 +6474,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>223</v>
       </c>
@@ -6462,10 +6516,13 @@
         <v>223NovelaSeriesSports</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="79" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="O78" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>223</v>
       </c>
@@ -6507,10 +6564,13 @@
         <v>223NovelaSpecialSports</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="O79" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>223</v>
       </c>
@@ -6552,10 +6612,13 @@
         <v>223NovelaSportsSports</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="O80" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>224</v>
       </c>
@@ -6596,12 +6659,11 @@
         <f t="shared" si="1"/>
         <v>224NovelaVarietyOriginal Variety</v>
       </c>
-      <c r="N81" s="1" t="e">
-        <f>VLOOKUP(M81,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N81" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>346</v>
       </c>
@@ -6642,12 +6704,11 @@
         <f t="shared" si="1"/>
         <v>3461 RUN-SeriesSeriesOriginal Series</v>
       </c>
-      <c r="N82" s="1" t="e">
-        <f>VLOOKUP(M82,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N82" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>347</v>
       </c>
@@ -6688,12 +6749,11 @@
         <f t="shared" si="1"/>
         <v>3472 RUN-SeriesSeriesOriginal Series</v>
       </c>
-      <c r="N83" s="1" t="e">
-        <f>VLOOKUP(M83,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N83" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>348</v>
       </c>
@@ -6734,9 +6794,8 @@
         <f t="shared" si="1"/>
         <v>3483 RUN-SeriesSeriesOriginal Series</v>
       </c>
-      <c r="N84" s="1" t="e">
-        <f>VLOOKUP(M84,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N84" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -6880,7 +6939,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>352</v>
       </c>
@@ -6921,12 +6980,11 @@
         <f t="shared" si="1"/>
         <v>3522 RUN-SpecialSpecialOriginal Specials</v>
       </c>
-      <c r="N88" s="1" t="e">
-        <f>VLOOKUP(M88,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="N88" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>353</v>
       </c>
@@ -6967,9 +7025,8 @@
         <f t="shared" si="1"/>
         <v>3533 RUN-SpecialSpecialOriginal Specials</v>
       </c>
-      <c r="N89" s="1" t="e">
-        <f>VLOOKUP(M89,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N89" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
@@ -7020,7 +7077,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>369</v>
       </c>
@@ -7061,16 +7118,20 @@
         <f t="shared" si="1"/>
         <v>3691 RUN-SpecialSpecialSpecials</v>
       </c>
-      <c r="N91" s="1" t="e">
-        <f>VLOOKUP(M91,Results!F:F,1,FALSE)</f>
-        <v>#N/A</v>
+      <c r="N91" s="1" t="s">
+        <v>56</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:O91">
     <filterColumn colId="13">
       <filters>
-        <filter val="#N/A"/>
+        <filter val="Failed"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="14">
+      <filters>
+        <filter val="Title not scheduled"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -7086,8 +7147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:E4"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7179,168 +7240,513 @@
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>55</v>
+      </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="0"/>
+        <v>443 RUNVarietyAcquired Films</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>191</v>
+      </c>
+      <c r="B6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1911 RUN-SeriesSeriesAcquired Series</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>42</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>421 RUNSpecialAcquired Films</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>369</v>
+      </c>
+      <c r="B8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3691 RUN-SpecialSpecialSpecials</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>346</v>
+      </c>
+      <c r="B9" t="s">
+        <v>28</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3461 RUN-SeriesSeriesOriginal Series</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>42</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>421 RUNSeriesAcquired Films</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>220</v>
+      </c>
+      <c r="B11" t="s">
+        <v>18</v>
+      </c>
+      <c r="C11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" t="s">
+        <v>55</v>
+      </c>
+      <c r="F11" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>220NovelaNovelaOriginal Novelas</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>224</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>224NovelaVarietyOriginal Variety</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>219</v>
+      </c>
+      <c r="B13" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>219NovelaNewsNews</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>221</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>221Novela-SeriesSeriesAcquired Series</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>353</v>
+      </c>
+      <c r="B15" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3533 RUN-SpecialSpecialOriginal Specials</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>443 RUNSpecialAcquired Films</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>44</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>443 RUNSeriesAcquired Films</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>43</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
+      <c r="F18" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>432 RUNSpecialAcquired Films</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>44</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>17</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F19" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>443 RUNFilmAcquired Films</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>198</v>
+      </c>
+      <c r="B20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1982 RUN-SeriesSeriesAcquired Series</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>199</v>
+      </c>
+      <c r="B21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" t="s">
+        <v>55</v>
+      </c>
+      <c r="F21" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>1992 RUN-SpecialSpecialStyle Specials</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>347</v>
+      </c>
+      <c r="B22" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E22" t="s">
+        <v>55</v>
+      </c>
+      <c r="F22" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3472 RUN-SeriesSeriesOriginal Series</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>352</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F23" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3522 RUN-SpecialSpecialOriginal Specials</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>208</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E24" t="s">
+        <v>55</v>
+      </c>
+      <c r="F24" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>2083 RUNVarietyOriginal Variety</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>205</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D25" t="s">
+        <v>30</v>
+      </c>
+      <c r="E25" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>2053 RUN-SeriesSeriesAcquired Series</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>206</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" t="s">
+        <v>32</v>
+      </c>
+      <c r="E26" t="s">
+        <v>55</v>
+      </c>
+      <c r="F26" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>2063 RUN-SpecialSpecialStyle Specials</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>348</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F27" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>3483 RUN-SeriesSeriesOriginal Series</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F28" s="1" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F6" s="1" t="str">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F29" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F7" s="1" t="str">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F30" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F8" s="1" t="str">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F31" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="F16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="20" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="21" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="22" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="23" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="24" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="26" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="29" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="30" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="31" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="32" spans="6:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="F32" s="1" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -7510,5 +7916,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter xml:space="preserve">&amp;CClassification: NBCUniversal Internal </oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/MasterData/9. AmortTemplateTelemundo.xlsx
+++ b/MasterData/9. AmortTemplateTelemundo.xlsx
@@ -2808,12 +2808,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="N92" sqref="N92"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2880,7 +2877,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42</v>
       </c>
@@ -2925,7 +2922,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42</v>
       </c>
@@ -2973,7 +2970,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42</v>
       </c>
@@ -3018,7 +3015,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="5" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42</v>
       </c>
@@ -3063,7 +3060,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>42</v>
       </c>
@@ -3111,7 +3108,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>42</v>
       </c>
@@ -3159,7 +3156,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>43</v>
       </c>
@@ -3204,7 +3201,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>43</v>
       </c>
@@ -3249,7 +3246,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>44</v>
       </c>
@@ -3294,7 +3291,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="11" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>44</v>
       </c>
@@ -3339,7 +3336,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="12" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>44</v>
       </c>
@@ -3384,7 +3381,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="13" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>44</v>
       </c>
@@ -3429,7 +3426,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>55</v>
       </c>
@@ -3477,7 +3474,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>55</v>
       </c>
@@ -3525,7 +3522,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="16" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>55</v>
       </c>
@@ -3573,7 +3570,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>55</v>
       </c>
@@ -3717,7 +3714,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>191</v>
       </c>
@@ -3765,7 +3762,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>191</v>
       </c>
@@ -3810,7 +3807,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="22" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>191</v>
       </c>
@@ -3858,7 +3855,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>191</v>
       </c>
@@ -3906,7 +3903,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>192</v>
       </c>
@@ -3954,7 +3951,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>193</v>
       </c>
@@ -4290,7 +4287,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>198</v>
       </c>
@@ -4338,7 +4335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="33" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>198</v>
       </c>
@@ -4383,7 +4380,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>198</v>
       </c>
@@ -4431,7 +4428,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="35" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>198</v>
       </c>
@@ -4479,7 +4476,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>199</v>
       </c>
@@ -4524,7 +4521,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>200</v>
       </c>
@@ -4860,7 +4857,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="44" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>205</v>
       </c>
@@ -4908,7 +4905,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>205</v>
       </c>
@@ -4953,7 +4950,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>205</v>
       </c>
@@ -5001,7 +4998,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>205</v>
       </c>
@@ -5049,7 +5046,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>206</v>
       </c>
@@ -5094,7 +5091,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>207</v>
       </c>
@@ -5286,7 +5283,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>208</v>
       </c>
@@ -5331,7 +5328,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>210</v>
       </c>
@@ -5379,7 +5376,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>210</v>
       </c>
@@ -5427,7 +5424,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>211</v>
       </c>
@@ -5475,7 +5472,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>212</v>
       </c>
@@ -5523,7 +5520,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>213</v>
       </c>
@@ -5571,7 +5568,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="59" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>213</v>
       </c>
@@ -5619,7 +5616,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>213</v>
       </c>
@@ -5667,7 +5664,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>213</v>
       </c>
@@ -5715,7 +5712,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>214</v>
       </c>
@@ -5763,7 +5760,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>215</v>
       </c>
@@ -5811,7 +5808,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>215</v>
       </c>
@@ -5859,7 +5856,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="65" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>215</v>
       </c>
@@ -5907,7 +5904,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="66" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>215</v>
       </c>
@@ -5955,7 +5952,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="67" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>216</v>
       </c>
@@ -6003,7 +6000,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>218</v>
       </c>
@@ -6051,7 +6048,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="69" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>218</v>
       </c>
@@ -6099,7 +6096,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="70" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>219</v>
       </c>
@@ -6144,7 +6141,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="71" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>220</v>
       </c>
@@ -6189,7 +6186,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="72" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>221</v>
       </c>
@@ -6237,7 +6234,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="73" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>221</v>
       </c>
@@ -6282,7 +6279,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="74" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>221</v>
       </c>
@@ -6330,7 +6327,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="75" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>221</v>
       </c>
@@ -6378,7 +6375,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="76" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>222</v>
       </c>
@@ -6426,7 +6423,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="77" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>223</v>
       </c>
@@ -6618,7 +6615,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="81" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>224</v>
       </c>
@@ -6663,7 +6660,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="82" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>346</v>
       </c>
@@ -6708,7 +6705,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="83" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>347</v>
       </c>
@@ -6753,7 +6750,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="84" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>348</v>
       </c>
@@ -6798,7 +6795,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="85" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>349</v>
       </c>
@@ -6846,7 +6843,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="86" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>350</v>
       </c>
@@ -6894,7 +6891,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="87" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>351</v>
       </c>
@@ -6939,7 +6936,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>352</v>
       </c>
@@ -6984,7 +6981,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="89" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>353</v>
       </c>
@@ -7029,7 +7026,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="90" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>354</v>
       </c>
@@ -7077,7 +7074,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="91" spans="1:15" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>369</v>
       </c>
@@ -7123,18 +7120,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O91">
-    <filterColumn colId="13">
-      <filters>
-        <filter val="Failed"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="14">
-      <filters>
-        <filter val="Title not scheduled"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>

--- a/MasterData/9. AmortTemplateTelemundo.xlsx
+++ b/MasterData/9. AmortTemplateTelemundo.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\206534643\git\AmortTemplateAutomation\MasterData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\mohammed.saquib\eclipse-workspace\amorttemplate\MasterData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -185,9 +185,6 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Unique</t>
-  </si>
-  <si>
     <t>Remarks</t>
   </si>
   <si>
@@ -216,6 +213,9 @@
   </si>
   <si>
     <t>Title not scheduled</t>
+  </si>
+  <si>
+    <t>UniqueKey</t>
   </si>
 </sst>
 </file>
@@ -2810,7 +2810,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O91"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="M2" sqref="M2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2868,13 +2870,13 @@
         <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>50</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
@@ -2919,7 +2921,7 @@
         <v>421 RUNFilmAcquired Films</v>
       </c>
       <c r="N2" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
@@ -2964,10 +2966,10 @@
         <v>421 RUNNovelaAcquired Films</v>
       </c>
       <c r="N3" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O3" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
@@ -3012,7 +3014,7 @@
         <v>421 RUNSeriesAcquired Films</v>
       </c>
       <c r="N4" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
@@ -3057,7 +3059,7 @@
         <v>421 RUNSpecialAcquired Films</v>
       </c>
       <c r="N5" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
@@ -3102,10 +3104,10 @@
         <v>421 RUNSportsAcquired Films</v>
       </c>
       <c r="N6" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O6" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
@@ -3150,10 +3152,10 @@
         <v>421 RUNVarietyAcquired Films</v>
       </c>
       <c r="N7" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
@@ -3198,7 +3200,7 @@
         <v>432 RUNFilmAcquired Films</v>
       </c>
       <c r="N8" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
@@ -3243,7 +3245,7 @@
         <v>432 RUNSpecialAcquired Films</v>
       </c>
       <c r="N9" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
@@ -3288,7 +3290,7 @@
         <v>443 RUNFilmAcquired Films</v>
       </c>
       <c r="N10" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
@@ -3333,7 +3335,7 @@
         <v>443 RUNSeriesAcquired Films</v>
       </c>
       <c r="N11" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
@@ -3378,7 +3380,7 @@
         <v>443 RUNSpecialAcquired Films</v>
       </c>
       <c r="N12" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
@@ -3423,7 +3425,7 @@
         <v>443 RUNVarietyAcquired Films</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
@@ -3468,10 +3470,10 @@
         <v>55MANUALFilmMANUAL</v>
       </c>
       <c r="N14" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O14" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O14" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
@@ -3516,10 +3518,10 @@
         <v>55MANUALNovelaMANUAL</v>
       </c>
       <c r="N15" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O15" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O15" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
@@ -3564,10 +3566,10 @@
         <v>55MANUALSeriesMANUAL</v>
       </c>
       <c r="N16" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O16" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O16" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -3612,10 +3614,10 @@
         <v>55MANUALVarietyMANUAL</v>
       </c>
       <c r="N17" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O17" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O17" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
@@ -3660,10 +3662,10 @@
         <v>1891 RUNNewsNews</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -3708,10 +3710,10 @@
         <v>1901 RUNNovelaOriginal Novelas</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
@@ -3756,10 +3758,10 @@
         <v>1911 RUN-SeriesEpisodeAcquired Series</v>
       </c>
       <c r="N20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O20" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
@@ -3804,7 +3806,7 @@
         <v>1911 RUN-SeriesSeriesAcquired Series</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
@@ -3849,10 +3851,10 @@
         <v>1911 RUN-SeriesSpecialAcquired Series</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
@@ -3897,10 +3899,10 @@
         <v>1911 RUN-SeriesSportsAcquired Series</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
@@ -3945,10 +3947,10 @@
         <v>1921 RUN-SpecialSpecialStyle Specials</v>
       </c>
       <c r="N24" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O24" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
@@ -3993,10 +3995,10 @@
         <v>1931 RUNEpisodeSports</v>
       </c>
       <c r="N25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
@@ -4041,10 +4043,10 @@
         <v>1931 RUNSeriesSports</v>
       </c>
       <c r="N26" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O26" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
@@ -4089,10 +4091,10 @@
         <v>1931 RUNSpecialSports</v>
       </c>
       <c r="N27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O27" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
@@ -4137,10 +4139,10 @@
         <v>1931 RUNSportsSports</v>
       </c>
       <c r="N28" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O28" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
@@ -4185,10 +4187,10 @@
         <v>1941 RUNVarietyOriginal Variety</v>
       </c>
       <c r="N29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O29" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -4233,10 +4235,10 @@
         <v>1962 RUNNewsNews</v>
       </c>
       <c r="N30" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O30" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
@@ -4281,10 +4283,10 @@
         <v>1972 RUNNovelaOriginal Novelas</v>
       </c>
       <c r="N31" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O31" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
@@ -4329,10 +4331,10 @@
         <v>1982 RUN-SeriesEpisodeAcquired Series</v>
       </c>
       <c r="N32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O32" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="O32" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
@@ -4377,7 +4379,7 @@
         <v>1982 RUN-SeriesSeriesAcquired Series</v>
       </c>
       <c r="N33" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
@@ -4422,10 +4424,10 @@
         <v>1982 RUN-SeriesSpecialAcquired Series</v>
       </c>
       <c r="N34" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O34" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
@@ -4470,10 +4472,10 @@
         <v>1982 RUN-SeriesSportsAcquired Series</v>
       </c>
       <c r="N35" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
@@ -4518,7 +4520,7 @@
         <v>1992 RUN-SpecialSpecialStyle Specials</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
@@ -4563,10 +4565,10 @@
         <v>2002 RUNEpisodeSports</v>
       </c>
       <c r="N37" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O37" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="O37" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
@@ -4611,10 +4613,10 @@
         <v>2002 RUNSeriesSports</v>
       </c>
       <c r="N38" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O38" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
@@ -4659,10 +4661,10 @@
         <v>2002 RUNSpecialSports</v>
       </c>
       <c r="N39" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O39" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
@@ -4707,10 +4709,10 @@
         <v>2002 RUNSportsSports</v>
       </c>
       <c r="N40" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O40" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
@@ -4755,10 +4757,10 @@
         <v>2012 RUNVarietyOriginal Variety</v>
       </c>
       <c r="N41" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O41" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
@@ -4803,10 +4805,10 @@
         <v>2033 RUNNewsNews</v>
       </c>
       <c r="N42" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
@@ -4851,10 +4853,10 @@
         <v>2043 RUNNovelaOriginal Novelas</v>
       </c>
       <c r="N43" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O43" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
@@ -4899,10 +4901,10 @@
         <v>2053 RUN-SeriesEpisodeAcquired Series</v>
       </c>
       <c r="N44" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O44" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="O44" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
@@ -4947,7 +4949,7 @@
         <v>2053 RUN-SeriesSeriesAcquired Series</v>
       </c>
       <c r="N45" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
@@ -4992,10 +4994,10 @@
         <v>2053 RUN-SeriesSpecialAcquired Series</v>
       </c>
       <c r="N46" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O46" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
@@ -5040,10 +5042,10 @@
         <v>2053 RUN-SeriesSportsAcquired Series</v>
       </c>
       <c r="N47" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O47" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
@@ -5088,7 +5090,7 @@
         <v>2063 RUN-SpecialSpecialStyle Specials</v>
       </c>
       <c r="N48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -5133,10 +5135,10 @@
         <v>2073 RUNEpisodeSports</v>
       </c>
       <c r="N49" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O49" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="O49" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
@@ -5181,10 +5183,10 @@
         <v>2073 RUNSeriesSports</v>
       </c>
       <c r="N50" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O50" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
@@ -5229,10 +5231,10 @@
         <v>2073 RUNSpecialSports</v>
       </c>
       <c r="N51" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O51" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
@@ -5277,10 +5279,10 @@
         <v>2073 RUNSportsSports</v>
       </c>
       <c r="N52" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O52" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
@@ -5325,7 +5327,7 @@
         <v>2083 RUNVarietyOriginal Variety</v>
       </c>
       <c r="N53" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
@@ -5370,10 +5372,10 @@
         <v>210MANUALFilmAcquired Films</v>
       </c>
       <c r="N54" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O54" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O54" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
@@ -5418,10 +5420,10 @@
         <v>210MANUALSpecialAcquired Films</v>
       </c>
       <c r="N55" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O55" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O55" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
@@ -5466,10 +5468,10 @@
         <v>211MANUALNewsNews</v>
       </c>
       <c r="N56" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O56" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O56" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="57" spans="1:15" x14ac:dyDescent="0.25">
@@ -5514,10 +5516,10 @@
         <v>212MANUALNovelaOriginal Novelas</v>
       </c>
       <c r="N57" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O57" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O57" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="58" spans="1:15" x14ac:dyDescent="0.25">
@@ -5562,10 +5564,10 @@
         <v>213MANUAL-SeriesEpisodeAcquired Series</v>
       </c>
       <c r="N58" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O58" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="59" spans="1:15" x14ac:dyDescent="0.25">
@@ -5610,10 +5612,10 @@
         <v>213MANUAL-SeriesSeriesAcquired Series</v>
       </c>
       <c r="N59" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O59" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O59" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
@@ -5658,10 +5660,10 @@
         <v>213MANUAL-SeriesSpecialAcquired Series</v>
       </c>
       <c r="N60" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O60" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O60" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
@@ -5706,10 +5708,10 @@
         <v>213MANUAL-SeriesSportsAcquired Series</v>
       </c>
       <c r="N61" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O61" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O61" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
@@ -5754,10 +5756,10 @@
         <v>214MANUAL-SpecialSpecialStyle Specials</v>
       </c>
       <c r="N62" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O62" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O62" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
@@ -5802,10 +5804,10 @@
         <v>215MANUALEpisodeSports</v>
       </c>
       <c r="N63" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O63" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O63" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
@@ -5850,10 +5852,10 @@
         <v>215MANUALSeriesSports</v>
       </c>
       <c r="N64" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O64" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O64" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.25">
@@ -5898,10 +5900,10 @@
         <v>215MANUALSpecialSports</v>
       </c>
       <c r="N65" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O65" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O65" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.25">
@@ -5946,10 +5948,10 @@
         <v>215MANUALSportsSports</v>
       </c>
       <c r="N66" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O66" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O66" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="67" spans="1:15" x14ac:dyDescent="0.25">
@@ -5994,10 +5996,10 @@
         <v>216MANUALVarietyOriginal Variety</v>
       </c>
       <c r="N67" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O67" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O67" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.25">
@@ -6042,10 +6044,10 @@
         <v>218NovelaFilmAcquired Films</v>
       </c>
       <c r="N68" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O68" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.25">
@@ -6090,10 +6092,10 @@
         <v>218NovelaSpecialAcquired Films</v>
       </c>
       <c r="N69" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O69" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.25">
@@ -6138,7 +6140,7 @@
         <v>219NovelaNewsNews</v>
       </c>
       <c r="N70" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.25">
@@ -6183,7 +6185,7 @@
         <v>220NovelaNovelaOriginal Novelas</v>
       </c>
       <c r="N71" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.25">
@@ -6228,10 +6230,10 @@
         <v>221Novela-SeriesEpisodeAcquired Series</v>
       </c>
       <c r="N72" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O72" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="O72" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.25">
@@ -6276,7 +6278,7 @@
         <v>221Novela-SeriesSeriesAcquired Series</v>
       </c>
       <c r="N73" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:15" x14ac:dyDescent="0.25">
@@ -6321,10 +6323,10 @@
         <v>221Novela-SeriesSpecialAcquired Series</v>
       </c>
       <c r="N74" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O74" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.25">
@@ -6369,10 +6371,10 @@
         <v>221Novela-SeriesSportsAcquired Series</v>
       </c>
       <c r="N75" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O75" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.25">
@@ -6417,10 +6419,10 @@
         <v>222Novela-SpecialSpecialStyle Specials</v>
       </c>
       <c r="N76" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O76" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.25">
@@ -6465,10 +6467,10 @@
         <v>223NovelaEpisodeSports</v>
       </c>
       <c r="N77" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="O77" s="1" t="s">
         <v>57</v>
-      </c>
-      <c r="O77" s="1" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.25">
@@ -6513,10 +6515,10 @@
         <v>223NovelaSeriesSports</v>
       </c>
       <c r="N78" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O78" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.25">
@@ -6561,10 +6563,10 @@
         <v>223NovelaSpecialSports</v>
       </c>
       <c r="N79" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O79" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.25">
@@ -6609,10 +6611,10 @@
         <v>223NovelaSportsSports</v>
       </c>
       <c r="N80" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="O80" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="81" spans="1:15" x14ac:dyDescent="0.25">
@@ -6657,7 +6659,7 @@
         <v>224NovelaVarietyOriginal Variety</v>
       </c>
       <c r="N81" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="82" spans="1:15" x14ac:dyDescent="0.25">
@@ -6702,7 +6704,7 @@
         <v>3461 RUN-SeriesSeriesOriginal Series</v>
       </c>
       <c r="N82" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="83" spans="1:15" x14ac:dyDescent="0.25">
@@ -6747,7 +6749,7 @@
         <v>3472 RUN-SeriesSeriesOriginal Series</v>
       </c>
       <c r="N83" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.25">
@@ -6792,7 +6794,7 @@
         <v>3483 RUN-SeriesSeriesOriginal Series</v>
       </c>
       <c r="N84" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.25">
@@ -6837,10 +6839,10 @@
         <v>349MANUAL-SeriesSeriesOriginal Series</v>
       </c>
       <c r="N85" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O85" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O85" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.25">
@@ -6885,10 +6887,10 @@
         <v>350Novela-SeriesSeriesOriginal Series</v>
       </c>
       <c r="N86" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O86" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O86" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="87" spans="1:15" x14ac:dyDescent="0.25">
@@ -6933,7 +6935,7 @@
         <v>3511 RUN-SpecialSpecialOriginal Specials</v>
       </c>
       <c r="N87" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="88" spans="1:15" x14ac:dyDescent="0.25">
@@ -6978,7 +6980,7 @@
         <v>3522 RUN-SpecialSpecialOriginal Specials</v>
       </c>
       <c r="N88" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.25">
@@ -7023,7 +7025,7 @@
         <v>3533 RUN-SpecialSpecialOriginal Specials</v>
       </c>
       <c r="N89" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.25">
@@ -7068,10 +7070,10 @@
         <v>354MANUAL-SpecialSpecialOriginal Specials</v>
       </c>
       <c r="N90" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="O90" s="1" t="s">
         <v>53</v>
-      </c>
-      <c r="O90" s="1" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.25">
@@ -7116,7 +7118,7 @@
         <v>3691 RUN-SpecialSpecialSpecials</v>
       </c>
       <c r="N91" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -7175,7 +7177,7 @@
         <v>17</v>
       </c>
       <c r="E2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F2" t="str">
         <f>CONCATENATE(A2,B2,C2,D2)</f>
@@ -7196,7 +7198,7 @@
         <v>39</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F3" s="1" t="str">
         <f t="shared" ref="F3:F59" si="0">CONCATENATE(A3,B3,C3,D3)</f>
@@ -7217,7 +7219,7 @@
         <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F4" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7238,7 +7240,7 @@
         <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F5" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7259,7 +7261,7 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F6" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7280,7 +7282,7 @@
         <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F7" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7301,7 +7303,7 @@
         <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F8" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7322,7 +7324,7 @@
         <v>38</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F9" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7343,7 +7345,7 @@
         <v>17</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7364,7 +7366,7 @@
         <v>27</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F11" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7385,7 +7387,7 @@
         <v>33</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F12" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7406,7 +7408,7 @@
         <v>26</v>
       </c>
       <c r="E13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F13" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7427,7 +7429,7 @@
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F14" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7448,7 +7450,7 @@
         <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F15" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7469,7 +7471,7 @@
         <v>17</v>
       </c>
       <c r="E16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F16" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7490,7 +7492,7 @@
         <v>17</v>
       </c>
       <c r="E17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F17" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7511,7 +7513,7 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F18" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7532,7 +7534,7 @@
         <v>17</v>
       </c>
       <c r="E19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F19" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7553,7 +7555,7 @@
         <v>30</v>
       </c>
       <c r="E20" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F20" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7574,7 +7576,7 @@
         <v>32</v>
       </c>
       <c r="E21" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F21" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7595,7 +7597,7 @@
         <v>38</v>
       </c>
       <c r="E22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F22" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7616,7 +7618,7 @@
         <v>39</v>
       </c>
       <c r="E23" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F23" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7637,7 +7639,7 @@
         <v>33</v>
       </c>
       <c r="E24" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F24" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7658,7 +7660,7 @@
         <v>30</v>
       </c>
       <c r="E25" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F25" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7679,7 +7681,7 @@
         <v>32</v>
       </c>
       <c r="E26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F26" s="1" t="str">
         <f t="shared" si="0"/>
@@ -7700,7 +7702,7 @@
         <v>38</v>
       </c>
       <c r="E27" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F27" s="1" t="str">
         <f t="shared" si="0"/>

--- a/MasterData/9. AmortTemplateTelemundo.xlsx
+++ b/MasterData/9. AmortTemplateTelemundo.xlsx
@@ -2811,7 +2811,7 @@
   <dimension ref="A1:O91"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="M2" sqref="M2"/>
+      <selection activeCell="O1" sqref="O1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
